--- a/Lection 3/task 3.1/ReportApp/Reports/ShopReport.xlsx
+++ b/Lection 3/task 3.1/ReportApp/Reports/ShopReport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5EAE7-5808-4999-B134-6FDAA9633315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEFF2F1-2BD8-468E-A4AD-3D0E7E560A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="6">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -158,6 +158,16 @@
       <x:patternFill patternType="solid">
         <x:fgColor theme="0"/>
         <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFFF"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF5F5F5"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -250,40 +260,25 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="23">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="right"/>
@@ -291,16 +286,36 @@
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="right"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
@@ -310,48 +325,27 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -371,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +440,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,9 +492,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,7 +691,7 @@
   <x:dimension ref="B7:G11"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <x:selection activeCell="I5" sqref="I5"/>
+      <x:selection activeCell="K5" sqref="K5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,72 +707,72 @@
   </x:cols>
   <x:sheetData>
     <x:row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="B7" s="12" t="s">
+      <x:c r="B7" s="17" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C7" s="12"/>
-      <x:c r="D7" s="12"/>
-      <x:c r="E7" s="12"/>
-      <x:c r="F7" s="12"/>
-      <x:c r="G7" s="12"/>
+      <x:c r="C7" s="17"/>
+      <x:c r="D7" s="17"/>
+      <x:c r="E7" s="17"/>
+      <x:c r="F7" s="17"/>
+      <x:c r="G7" s="17"/>
     </x:row>
     <x:row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="B8" s="12" t="s">
+      <x:c r="B8" s="18" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C8" s="13"/>
-      <x:c r="D8" s="12" t="s">
+      <x:c r="C8" s="18"/>
+      <x:c r="D8" s="18" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E8" s="13"/>
-      <x:c r="F8" s="13"/>
-      <x:c r="G8" s="14"/>
+      <x:c r="E8" s="18"/>
+      <x:c r="F8" s="18"/>
+      <x:c r="G8" s="18"/>
     </x:row>
     <x:row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="B9" s="15" t="s">
+      <x:c r="B9" s="19" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="16" t="s">
+      <x:c r="C9" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D9" s="15" t="s">
+      <x:c r="D9" s="19" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E9" s="15" t="s">
+      <x:c r="E9" s="19" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F9" s="15" t="s">
+      <x:c r="F9" s="19" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G9" s="15" t="s">
+      <x:c r="G9" s="19" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="B10" s="17" t="s">
+      <x:c r="B10" s="20" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C10" s="18" t="s">
+      <x:c r="C10" s="20" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D10" s="19" t="s">
+      <x:c r="D10" s="20" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E10" s="19">
+      <x:c r="E10" s="20">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F10" s="19">
+      <x:c r="F10" s="20">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G10" s="19" t="s">
+      <x:c r="G10" s="20" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="B11" s="20" t="s">
+      <x:c r="B11" s="21" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C11" s="20" t="s">
+      <x:c r="C11" s="21" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="21" t="s">
@@ -761,136 +789,136 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="B12" s="22" t="s">
+      <x:c r="B12" s="20" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C12" s="22" t="s">
+      <x:c r="C12" s="20" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D12" s="22" t="s">
+      <x:c r="D12" s="20" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E12" s="22">
+      <x:c r="E12" s="20">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F12" s="22">
+      <x:c r="F12" s="20">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="G12" s="22"/>
+      <x:c r="G12" s="20"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="B13" s="22" t="s">
+      <x:c r="B13" s="21" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C13" s="22" t="s">
+      <x:c r="C13" s="21" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D13" s="22" t="s">
+      <x:c r="D13" s="21" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E13" s="22">
+      <x:c r="E13" s="21">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F13" s="22">
+      <x:c r="F13" s="21">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G13" s="22" t="s">
+      <x:c r="G13" s="21" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
-      <x:c r="B14" s="22" t="s">
+      <x:c r="B14" s="20" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C14" s="22" t="s">
+      <x:c r="C14" s="20" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D14" s="22" t="s">
+      <x:c r="D14" s="20" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E14" s="22">
+      <x:c r="E14" s="20">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F14" s="22">
+      <x:c r="F14" s="20">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G14" s="22" t="s">
+      <x:c r="G14" s="20" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="B15" s="22" t="s">
+      <x:c r="B15" s="21" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C15" s="22" t="s">
+      <x:c r="C15" s="21" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D15" s="22" t="s">
+      <x:c r="D15" s="21" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E15" s="22">
+      <x:c r="E15" s="21">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F15" s="22">
+      <x:c r="F15" s="21">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G15" s="22" t="s">
+      <x:c r="G15" s="21" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
-      <x:c r="B16" s="22" t="s">
+      <x:c r="B16" s="20" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C16" s="22" t="s">
+      <x:c r="C16" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D16" s="22" t="s">
+      <x:c r="D16" s="20" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E16" s="22">
+      <x:c r="E16" s="20">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="F16" s="22">
+      <x:c r="F16" s="20">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="G16" s="22"/>
+      <x:c r="G16" s="20"/>
     </x:row>
     <x:row r="17" spans="1:8">
-      <x:c r="B17" s="22" t="s">
+      <x:c r="B17" s="21" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C17" s="22" t="s">
+      <x:c r="C17" s="21" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D17" s="22" t="s">
+      <x:c r="D17" s="21" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E17" s="22">
+      <x:c r="E17" s="21">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F17" s="22">
+      <x:c r="F17" s="21">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G17" s="22"/>
+      <x:c r="G17" s="21"/>
     </x:row>
     <x:row r="18" spans="1:8">
-      <x:c r="B18" s="22" t="s">
+      <x:c r="B18" s="20" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C18" s="22" t="s">
+      <x:c r="C18" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D18" s="22" t="s">
+      <x:c r="D18" s="20" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E18" s="22">
+      <x:c r="E18" s="20">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="F18" s="22">
+      <x:c r="F18" s="20">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="G18" s="22"/>
+      <x:c r="G18" s="20"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">

--- a/Lection 3/task 3.1/ReportApp/Reports/ShopReport.xlsx
+++ b/Lection 3/task 3.1/ReportApp/Reports/ShopReport.xlsx
@@ -85,21 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Restore 10% HP whenever you enter a Location for the next three encounters</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RogueLikeStore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hades</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dark Souls 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cult of The Lamb</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -278,7 +263,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="right"/>
@@ -344,8 +329,16 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -698,8 +691,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.853482" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="15.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="8.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="4.853482" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="70.139196" style="0" customWidth="1"/>
@@ -758,10 +751,10 @@
       <x:c r="D10" s="20" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E10" s="20">
+      <x:c r="E10" s="21">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F10" s="20">
+      <x:c r="F10" s="21">
         <x:v>25</x:v>
       </x:c>
       <x:c r="G10" s="20" t="s">
@@ -769,22 +762,22 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="B11" s="21" t="s">
+      <x:c r="B11" s="22" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C11" s="21" t="s">
+      <x:c r="C11" s="22" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D11" s="21" t="s">
+      <x:c r="D11" s="22" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E11" s="21">
+      <x:c r="E11" s="23">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F11" s="21">
+      <x:c r="F11" s="23">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G11" s="21" t="s">
+      <x:c r="G11" s="22" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -798,31 +791,31 @@
       <x:c r="D12" s="20" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E12" s="20">
+      <x:c r="E12" s="21">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F12" s="20">
+      <x:c r="F12" s="21">
         <x:v>150</x:v>
       </x:c>
       <x:c r="G12" s="20"/>
     </x:row>
     <x:row r="13" spans="1:8">
-      <x:c r="B13" s="21" t="s">
+      <x:c r="B13" s="22" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C13" s="21" t="s">
+      <x:c r="C13" s="22" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D13" s="21" t="s">
+      <x:c r="D13" s="22" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E13" s="21">
+      <x:c r="E13" s="23">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F13" s="21">
+      <x:c r="F13" s="23">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G13" s="21" t="s">
+      <x:c r="G13" s="22" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
@@ -836,10 +829,10 @@
       <x:c r="D14" s="20" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E14" s="20">
+      <x:c r="E14" s="21">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F14" s="20">
+      <x:c r="F14" s="21">
         <x:v>80</x:v>
       </x:c>
       <x:c r="G14" s="20" t="s">
@@ -847,78 +840,24 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
-      <x:c r="B15" s="21" t="s">
+      <x:c r="B15" s="22" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C15" s="21" t="s">
+      <x:c r="C15" s="22" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D15" s="21" t="s">
+      <x:c r="D15" s="22" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E15" s="21">
+      <x:c r="E15" s="23">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F15" s="21">
+      <x:c r="F15" s="23">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G15" s="21" t="s">
+      <x:c r="G15" s="22" t="s">
         <x:v>22</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="B16" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C16" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D16" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E16" s="20">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="F16" s="20">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G16" s="20"/>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="B17" s="21" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C17" s="21" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D17" s="21" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E17" s="21">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F17" s="21">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G17" s="21"/>
-    </x:row>
-    <x:row r="18" spans="1:8">
-      <x:c r="B18" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C18" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D18" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E18" s="20">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F18" s="20">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="G18" s="20"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">

--- a/Lection 3/task 3.1/ReportApp/Reports/ShopReport.xlsx
+++ b/Lection 3/task 3.1/ReportApp/Reports/ShopReport.xlsx
@@ -85,6 +85,21 @@
   </x:si>
   <x:si>
     <x:t>Restore 10% HP whenever you enter a Location for the next three encounters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RogueLikeStore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hades</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dark Souls 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cult of The Lamb</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -691,8 +706,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.567768" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="15.853482" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="8.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="4.853482" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="70.139196" style="0" customWidth="1"/>
@@ -858,6 +873,60 @@
       <x:c r="G15" s="22" t="s">
         <x:v>22</x:v>
       </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="B16" s="20" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C16" s="20" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D16" s="20" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E16" s="21">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="F16" s="21">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G16" s="20"/>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="B17" s="22" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C17" s="22" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D17" s="22" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E17" s="23">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F17" s="23">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G17" s="22"/>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="B18" s="20" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C18" s="20" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D18" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="21">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F18" s="21">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="G18" s="20"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
